--- a/biology/Écologie/Accommodat/Accommodat.xlsx
+++ b/biology/Écologie/Accommodat/Accommodat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un accommodat désigne une modification ou l'ensemble des modifications morphologiques et biologiques non héréditaires d'un organisme vivant lorsqu'il est soumis à des facteurs abiotiques différents de ceux de son milieu habituel.
 Ce terme désigne aussi l'organisme vivant présentant de telles modifications.
@@ -513,7 +525,9 @@
           <t>Une plasticité du phénotype à l'échelle de l'individu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'accommodat est une réponse ou adaptation phénotypique non-héréditaire à un environnement hors de la norme d'une espèce considérée. Il est le résultat de l'expression du génotype d'une espèce, sans modification de celui-ci, dans un environnement particulier.
 Il diffère en ce sens de l'écotype qui correspond à une modification du génotype et du phénotype par voie de sélection naturelle (variétés, sous-espèces, ...).
@@ -547,7 +561,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le bronzage des humains correspond à une augmentation de la production de mélanine par les mélanocytes du derme ou de l'épiderme lorsque le rayonnement solaire perçu par la peau est trop important. C'est une modification réversible à l'échelle de l'individu, et non héréditaire, donc un accomodat.
 Les plantes exotiques adaptées aux climats chauds présentent des accomodats lorsqu'elles sont cultivées en climat tempéré. Les buissons ou arbres exposés à des vents forts dominants présentent de fortes anémomorphoses.
